--- a/biology/Zoologie/Ctenomys/Ctenomys.xlsx
+++ b/biology/Zoologie/Ctenomys/Ctenomys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tuco-tucos, Rats à peigne
-Ctenomys est un genre de rongeurs de la famille des Ctenomyidae. Il comprend de nombreuses espèces souterraines d'Amérique du Sud appelées des Cténomys, tuco-tucos ou parfois des rats à peigne[2],[3]. Ce sont des petits mammifères d'Amérique du Sud qui creusent des terriers dans le sol. Plus de la moitié des espèces est endémique d'Argentine.
+Ctenomys est un genre de rongeurs de la famille des Ctenomyidae. Il comprend de nombreuses espèces souterraines d'Amérique du Sud appelées des Cténomys, tuco-tucos ou parfois des rats à peigne,. Ce sont des petits mammifères d'Amérique du Sud qui creusent des terriers dans le sol. Plus de la moitié des espèces est endémique d'Argentine.
 Ce genre a été décrit pour la première fois en 1826 par Henri-Marie Ducrotay de Blainville (1777-1850), un zoologiste et anatomiste français. Certains auteurs en ont fait un temps le seul genre de la tribu des Ctenomyini, classée dans la famille des Octodontidae.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (28 mars 2013)[4] et ITIS      (28 mars 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (28 mars 2013) et ITIS      (28 mars 2013) :
 Ctenomys argentinus Contreras &amp; Berry, 1982
 Ctenomys australis Rusconi, 1934
 Ctenomys azarae Thomas, 1903
@@ -541,7 +555,7 @@
 Ctenomys haigi Thomas, 1917
 Ctenomys johannis Thomas, 1921
 Ctenomys juris Thomas, 1920
-Ctenomys knighti Thomas, 1919 - le Cténomys de Knight[3]
+Ctenomys knighti Thomas, 1919 - le Cténomys de Knight
 Ctenomys lami Freitas, 2001
 Ctenomys latro Thomas, 1918
 Ctenomys leucodon Waterhouse, 1848
@@ -576,7 +590,7 @@
 Ctenomys validus Contreras, Roig &amp; Suzarte, 1977
 Ctenomys viperinus Thomas, 1926
 Ctenomys yolandae Contreras &amp; Berry, 1984
-Selon Paleobiology Database                   (28 mars 2013)[5] :
+Selon Paleobiology Database                   (28 mars 2013) :
 Ctenomys formosus
 Ctenomys kraglievichi
 Ctenomys magellanicus
